--- a/docs/TableDetails.xlsx
+++ b/docs/TableDetails.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ravi\Projects\FastSpring\FastSpringApi\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -142,6 +147,9 @@
   </si>
   <si>
     <t>STORESESSION</t>
+  </si>
+  <si>
+    <t>STOREID</t>
   </si>
 </sst>
 </file>
@@ -217,6 +225,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -715,6 +726,97 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5448300" y="4867275"/>
+          <a:ext cx="371475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5457825" y="3152775"/>
+          <a:ext cx="304800" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -780,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1484,14 @@
       </c>
       <c r="J25" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
